--- a/files/Natural-JS 개발자 교육 계획.xlsx
+++ b/files/Natural-JS 개발자 교육 계획.xlsx
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* 차교육 : 2018.02.19 14:00 ~ 18:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. 교육 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,6 +123,10 @@
   </si>
   <si>
     <t>* 내부망 : html://10.51.153.43:8180/demo/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 1차교육 : 2018.02.19 14:00 ~ 18:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,7 +502,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="F10" sqref="F10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -520,12 +520,12 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -535,7 +535,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -673,52 +673,52 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
